--- a/projects.xlsx
+++ b/projects.xlsx
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,7 +1071,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
@@ -1091,7 +1091,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>20</v>
@@ -1111,7 +1111,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -1131,7 +1131,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -1151,7 +1151,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>

--- a/projects.xlsx
+++ b/projects.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="39">
   <si>
     <t>№ критерію</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Строк виконання, дні</t>
   </si>
   <si>
-    <t>Актуальність, 0-10</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -55,30 +52,12 @@
     <t>40</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>60</t>
   </si>
   <si>
-    <t>Шанс додаткових інвестицій, %</t>
-  </si>
-  <si>
-    <t>Шанс додаткового доходу, %</t>
-  </si>
-  <si>
     <t>Перспектива подальшого розвитку, 0-10</t>
   </si>
   <si>
-    <t>Шанс успішного виконання, %</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -100,7 +79,61 @@
     <t>min</t>
   </si>
   <si>
-    <t>оптимальне значення</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>Оцінка актуальності, 0-10</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>Очікувані додаткові інвестиції, %</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Кількість персоналу для проекту</t>
+  </si>
+  <si>
+    <t>Витрати на амортизацію в рік, грн</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>7000</t>
+  </si>
+  <si>
+    <t>5200</t>
+  </si>
+  <si>
+    <t>22000</t>
+  </si>
+  <si>
+    <t>6500</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>45</t>
   </si>
 </sst>
 </file>
@@ -455,7 +488,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,54 +508,54 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>26</v>
+      <c r="C1" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
@@ -530,19 +563,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -550,19 +583,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -570,62 +603,62 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -638,7 +671,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,51 +691,51 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>26</v>
+      <c r="C1" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>11</v>
@@ -713,19 +746,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -733,19 +766,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -753,62 +786,62 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -821,7 +854,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,54 +874,54 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>26</v>
+      <c r="C1" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
@@ -896,19 +929,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -916,19 +949,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -936,62 +969,62 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1004,7 +1037,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,94 +1057,94 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>26</v>
+      <c r="C1" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -1119,62 +1152,62 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
